--- a/medicine/Sexualité et sexologie/Les_Vénus_enchaînées/Les_Vénus_enchaînées.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Vénus_enchaînées/Les_Vénus_enchaînées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vénus enchaînées est un moyen-métrage documentaire français réalisé par Guillaume Gevart[1] produit par Jacob Rothschild et Dylan Besseau[2]. En 2023, le film a remporté la Mention honorifique au Student World Impact Film Festival[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vénus enchaînées est un moyen-métrage documentaire français réalisé par Guillaume Gevart produit par Jacob Rothschild et Dylan Besseau. En 2023, le film a remporté la Mention honorifique au Student World Impact Film Festival,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce documentaire aborde le thème de la prostitution en donnant la parole à des militantes du Mouvement du Nid. Il vise à explorer les aspects financiers et psychologiques de cette problématique qui affecte plus de 30 000 personnes en France, dont 10 000 sont des mineurs. En mettant en avant des figures telles que l'avocate Anne Bouillon, Myriam Bigeard, élue locale en Loire-Atlantique spécialisée dans l'égalité femmes/hommes, et de la médecin légiste Judith Trinquart[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce documentaire aborde le thème de la prostitution en donnant la parole à des militantes du Mouvement du Nid. Il vise à explorer les aspects financiers et psychologiques de cette problématique qui affecte plus de 30 000 personnes en France, dont 10 000 sont des mineurs. En mettant en avant des figures telles que l'avocate Anne Bouillon, Myriam Bigeard, élue locale en Loire-Atlantique spécialisée dans l'égalité femmes/hommes, et de la médecin légiste Judith Trinquart.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique[6],[7]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Guillaume Gevart
 Production : Artwooks Media
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anne Bouillon
 Myriam Bigeard
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +631,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023 : Mention Honorable au Student World Impact Film Festival[8]
-2023 : Sélection officielle au Festival du documentaire sur la Justice[9],[10],[11]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023 : Mention Honorable au Student World Impact Film Festival
+2023 : Sélection officielle au Festival du documentaire sur la Justice</t>
         </is>
       </c>
     </row>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9nus_encha%C3%AEn%C3%A9es</t>
+          <t>Les_Vénus_enchaînées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Alexis Pantaléon, « Interview de Guillaume Gevart : “On apprend le cinéma en faisant du cinéma.” », lemagducine.fr (consulté le 4 novembre 2023).
